--- a/biology/Zoologie/Cacatoès_à_rectrices_blanches/Cacatoès_à_rectrices_blanches.xlsx
+++ b/biology/Zoologie/Cacatoès_à_rectrices_blanches/Cacatoès_à_rectrices_blanches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_%C3%A0_rectrices_blanches</t>
+          <t>Cacatoès_à_rectrices_blanches</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calyptorhynchus latirostris
 Le Cacatoès à rectrices blanches (Calyptorhynchus latirostris ; en anglais : Short-billed Black Cockatoo) est une espèce d'oiseaux endémique du Sud-Ouest de l'Australie. C'est une espèce monotypique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_%C3%A0_rectrices_blanches</t>
+          <t>Cacatoès_à_rectrices_blanches</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 55 à 60 cm pour une masse de 580 à 770 g. Il présente un plumage à dominante noire.
 Le dimorphisme sexuel est net : le mâle a le bec noir et les couvertures auriculaires blanc grisâtre tandis que la femelle a le bec corne et les couvertures auriculaires blanc pur.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_%C3%A0_rectrices_blanches</t>
+          <t>Cacatoès_à_rectrices_blanches</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Répartition et Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit entre 300 et 750 m d'altitude.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_%C3%A0_rectrices_blanches</t>
+          <t>Cacatoès_à_rectrices_blanches</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle pond un ou deux œufs. L'incubation dure 28 ou 29 jours. Les jeunes demeurent au nid 11 à 12 semaines.
 </t>
